--- a/PartialRefund.xlsx
+++ b/PartialRefund.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A5791-7F1B-4A54-A554-6185D3E90CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909EC397-D17B-4960-B138-51035A766958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32190" yWindow="180" windowWidth="18075" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="2670" windowWidth="31880" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SaleAndPartialRefund" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="172">
   <si>
     <t>TestNotes</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>12/25</t>
+  </si>
+  <si>
+    <t>iahmed@govolution.com</t>
   </si>
 </sst>
 </file>
@@ -594,9 +597,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,87 +884,87 @@
   <dimension ref="A1:BX26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN2" sqref="BN2:BN26"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD2" sqref="BD2:BD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.15234375" style="1"/>
+    <col min="41" max="41" width="8.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.42578125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="31.84375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="14.3828125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="16.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.85546875" style="1" customWidth="1"/>
+    <col min="63" max="63" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.84375" style="1" customWidth="1"/>
     <col min="65" max="65" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.7109375" style="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="66" max="66" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="35.69140625" style="1" customWidth="1"/>
+    <col min="72" max="72" width="7.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.69140625" style="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -1245,6 +1249,9 @@
       <c r="BB2" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD2" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE2" s="1">
         <v>22201</v>
       </c>
@@ -1282,7 +1289,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -1337,6 +1344,9 @@
       <c r="BB3" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD3" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE3" s="1">
         <v>123456789</v>
       </c>
@@ -1374,7 +1384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
@@ -1429,6 +1439,9 @@
       <c r="BB4" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD4" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE4" s="1" t="s">
         <v>88</v>
       </c>
@@ -1466,7 +1479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>130</v>
       </c>
@@ -1524,6 +1537,9 @@
       <c r="BB5" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD5" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE5" s="1">
         <v>22201</v>
       </c>
@@ -1561,7 +1577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>131</v>
       </c>
@@ -1619,6 +1635,9 @@
       <c r="BB6" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD6" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE6" s="1">
         <v>123456789</v>
       </c>
@@ -1656,7 +1675,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -1714,6 +1733,9 @@
       <c r="BB7" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD7" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE7" s="1" t="s">
         <v>88</v>
       </c>
@@ -1751,7 +1773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -1809,6 +1831,9 @@
       <c r="BB8" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD8" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE8" s="1" t="s">
         <v>97</v>
       </c>
@@ -1846,7 +1871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
@@ -1904,6 +1929,9 @@
       <c r="BB9" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD9" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE9" s="1" t="s">
         <v>98</v>
       </c>
@@ -1941,7 +1969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>135</v>
       </c>
@@ -1999,6 +2027,9 @@
       <c r="BB10" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD10" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE10" s="1" t="s">
         <v>99</v>
       </c>
@@ -2036,7 +2067,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>136</v>
       </c>
@@ -2094,6 +2125,9 @@
       <c r="BB11" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD11" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE11" s="1" t="s">
         <v>100</v>
       </c>
@@ -2131,7 +2165,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -2186,6 +2220,9 @@
       <c r="BB12" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="BD12" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE12" s="1">
         <v>22201</v>
       </c>
@@ -2223,7 +2260,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -2278,6 +2315,9 @@
       <c r="BB13" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="BD13" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE13" s="1">
         <v>22201</v>
       </c>
@@ -2315,7 +2355,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -2370,6 +2410,9 @@
       <c r="BB14" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD14" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE14" s="1">
         <v>22201</v>
       </c>
@@ -2407,7 +2450,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -2462,6 +2505,9 @@
       <c r="BB15" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD15" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE15" s="1">
         <v>123456789</v>
       </c>
@@ -2499,7 +2545,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
@@ -2554,6 +2600,9 @@
       <c r="BB16" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD16" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE16" s="1" t="s">
         <v>88</v>
       </c>
@@ -2591,7 +2640,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -2649,6 +2698,9 @@
       <c r="BB17" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD17" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE17" s="1">
         <v>22201</v>
       </c>
@@ -2686,7 +2738,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -2744,6 +2796,9 @@
       <c r="BB18" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD18" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE18" s="1">
         <v>123456789</v>
       </c>
@@ -2781,7 +2836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>144</v>
       </c>
@@ -2839,6 +2894,9 @@
       <c r="BB19" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD19" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE19" s="1" t="s">
         <v>88</v>
       </c>
@@ -2876,7 +2934,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
@@ -2934,6 +2992,9 @@
       <c r="BB20" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD20" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE20" s="1" t="s">
         <v>97</v>
       </c>
@@ -2971,7 +3032,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -3029,6 +3090,9 @@
       <c r="BB21" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD21" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE21" s="1" t="s">
         <v>98</v>
       </c>
@@ -3066,7 +3130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>147</v>
       </c>
@@ -3124,6 +3188,9 @@
       <c r="BB22" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD22" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE22" s="1" t="s">
         <v>99</v>
       </c>
@@ -3161,7 +3228,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
@@ -3219,6 +3286,9 @@
       <c r="BB23" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BD23" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE23" s="1" t="s">
         <v>100</v>
       </c>
@@ -3256,7 +3326,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
@@ -3311,6 +3381,9 @@
       <c r="BB24" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="BD24" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE24" s="1">
         <v>22201</v>
       </c>
@@ -3348,7 +3421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>150</v>
       </c>
@@ -3403,6 +3476,9 @@
       <c r="BB25" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="BD25" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="BE25" s="1">
         <v>22201</v>
       </c>
@@ -3440,7 +3516,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>166</v>
       </c>
@@ -3494,6 +3570,9 @@
       </c>
       <c r="BB26" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="BD26" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="BE26" s="1">
         <v>22201</v>
@@ -3536,5 +3615,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>